--- a/Class Activities.xlsx
+++ b/Class Activities.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -109,6 +110,39 @@
   </si>
   <si>
     <t>Text file</t>
+  </si>
+  <si>
+    <t>Assignment 3 (5)</t>
+  </si>
+  <si>
+    <t>check for plag</t>
+  </si>
+  <si>
+    <t>Incorrect distance formula</t>
+  </si>
+  <si>
+    <t>Incorrect distance formula, similar Qurban</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>Incorrect distance method</t>
+  </si>
+  <si>
+    <t>Copied with Shahwar</t>
+  </si>
+  <si>
+    <t>distance not defined in class; copied with Ziad</t>
+  </si>
+  <si>
+    <t>chk for plag</t>
+  </si>
+  <si>
+    <t>Uzair zahidi</t>
+  </si>
+  <si>
+    <t>No submission</t>
   </si>
 </sst>
 </file>
@@ -147,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,17 +204,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +521,11 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -485,8 +535,11 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10092</v>
       </c>
@@ -496,8 +549,11 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9304</v>
       </c>
@@ -507,8 +563,11 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25367</v>
       </c>
@@ -518,8 +577,11 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14831</v>
       </c>
@@ -529,8 +591,11 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25377</v>
       </c>
@@ -540,8 +605,14 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8635</v>
       </c>
@@ -551,8 +622,11 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25366</v>
       </c>
@@ -562,8 +636,11 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10739</v>
       </c>
@@ -573,8 +650,14 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4308</v>
       </c>
@@ -584,8 +667,14 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25371</v>
       </c>
@@ -595,8 +684,11 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21205</v>
       </c>
@@ -606,8 +698,11 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21130</v>
       </c>
@@ -617,8 +712,14 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9590</v>
       </c>
@@ -628,8 +729,11 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7253</v>
       </c>
@@ -639,8 +743,11 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25372</v>
       </c>
@@ -650,8 +757,14 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13076</v>
       </c>
@@ -661,8 +774,14 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25369</v>
       </c>
@@ -672,8 +791,14 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25365</v>
       </c>
@@ -683,16 +808,25 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23943</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25378</v>
       </c>
@@ -702,32 +836,47 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25364</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4879</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12348</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25379</v>
       </c>
@@ -736,9 +885,35 @@
       </c>
       <c r="C25" t="s">
         <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Class Activities.xlsx
+++ b/Class Activities.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Assignment 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Hourlies" sheetId="3" r:id="rId2"/>
+    <sheet name="Assignment 3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>No submission</t>
+  </si>
+  <si>
+    <t>First Hourly</t>
+  </si>
+  <si>
+    <t>absent</t>
   </si>
 </sst>
 </file>
@@ -219,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -228,6 +235,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,394 +523,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10092</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9304</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25367</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14831</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25377</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8635</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25366</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10739</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4308</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25371</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21205</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21130</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9590</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7253</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25372</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13076</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25369</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="4"/>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25365</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23943</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25378</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25364</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="4"/>
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4879</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12348</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25379</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="4"/>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="5"/>
+      <c r="E26">
         <v>5</v>
       </c>
     </row>
@@ -907,6 +945,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10092</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9304</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>25367</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>14831</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>25377</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8635</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>21205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>25366</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>21130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10739</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4308</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>25371</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9590</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>25372</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13076</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>25369</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>25365</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>23943</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>25378</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4879</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25364</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25374</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>12348</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25379</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Class Activities.xlsx
+++ b/Class Activities.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
     <sheet name="Hourlies" sheetId="3" r:id="rId2"/>
-    <sheet name="Assignment 3" sheetId="2" r:id="rId3"/>
+    <sheet name="ProjectProposal" sheetId="4" r:id="rId3"/>
+    <sheet name="Assignment 3" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -150,13 +151,140 @@
   </si>
   <si>
     <t>absent</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Team1</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Web Application showing Data Visualization of Crude Oil Prices from1985 to 2021 on a Dashboard using Dash, Plotly and Flask.</t>
+  </si>
+  <si>
+    <t>SYED MUZAMMIL AHMED</t>
+  </si>
+  <si>
+    <t>Qurban Ali</t>
+  </si>
+  <si>
+    <t>The project will be based on the text processing tool that will be web-based application</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>Areeb Qureshi</t>
+  </si>
+  <si>
+    <t>Hunain Ghulam Mohiuddin</t>
+  </si>
+  <si>
+    <t>This project will automate the reporting and comparing of key financial matrices of public listed companies, on Pakistan Stock Exchange (PSX), of Pakistan where user may view the updated data and visuals as published by the State Bank of Pakistan (SBP) on its website.</t>
+  </si>
+  <si>
+    <t>Syed Najeeb</t>
+  </si>
+  <si>
+    <t>Azeemullah</t>
+  </si>
+  <si>
+    <t>Text Analysis on Spam Email Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search engine to list the important articles related to the economy and current affairs of South Asia. </t>
+  </si>
+  <si>
+    <t>Shaiza Farman</t>
+  </si>
+  <si>
+    <t>Muhammad Amin Ghias</t>
+  </si>
+  <si>
+    <t>Food Engine Karachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasila Rehman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madiha Imran </t>
+  </si>
+  <si>
+    <t>Customized Marketing KPI Dashboard</t>
+  </si>
+  <si>
+    <t>Syed Muhammad Areeb Imran</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis on Titatnic Dataset</t>
+  </si>
+  <si>
+    <t>Dashboard of Pakistan’s Largest Ecommerce Dataset</t>
+  </si>
+  <si>
+    <t>Namra Aziz</t>
+  </si>
+  <si>
+    <t>Maryam Khan</t>
+  </si>
+  <si>
+    <t>Designing a search engine for online courses using YouTube developer and Udemy developer APIs.</t>
+  </si>
+  <si>
+    <t>Muhammad Zaid Bin Raees</t>
+  </si>
+  <si>
+    <t>Shahwar Muazzam</t>
+  </si>
+  <si>
+    <t>Dashboard for Titatnic Dataset</t>
+  </si>
+  <si>
+    <t>Syed Huzaifa Nafees</t>
+  </si>
+  <si>
+    <t>Uzair Zahidi</t>
+  </si>
+  <si>
+    <t>The goal is to design a cricketing dashboard in which a user will be able to access
+information from any tournament, series, or calendar year.</t>
+  </si>
+  <si>
+    <t>A speech-to-text transcribing, and language translation converter</t>
+  </si>
+  <si>
+    <t>Syed Bilal Rizwan</t>
+  </si>
+  <si>
+    <t>Omar Ahmed Khan</t>
+  </si>
+  <si>
+    <t>Fareed Hassan Khan</t>
+  </si>
+  <si>
+    <t>Syed Asad Rizvi</t>
+  </si>
+  <si>
+    <t>Dashboard for Google Play Store Applications Dataset</t>
+  </si>
+  <si>
+    <t>Ziad</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,16 +307,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -222,11 +374,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -241,6 +408,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:B26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,12 +1442,237 @@
         <v>19</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="8">
+        <f>COUNTA(B2:B26)</f>
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="86.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Class Activities.xlsx
+++ b/Class Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>No submission</t>
-  </si>
-  <si>
-    <t>First Hourly</t>
   </si>
   <si>
     <t>absent</t>
@@ -278,6 +275,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Second Hourly(30)</t>
+  </si>
+  <si>
+    <t>First Hourly (35)</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,9 +1157,10 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1164,10 +1168,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10092</v>
       </c>
@@ -1177,8 +1184,11 @@
       <c r="C2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9304</v>
       </c>
@@ -1188,8 +1198,11 @@
       <c r="C3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25367</v>
       </c>
@@ -1199,8 +1212,11 @@
       <c r="C4">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14831</v>
       </c>
@@ -1210,8 +1226,11 @@
       <c r="C5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25377</v>
       </c>
@@ -1221,8 +1240,11 @@
       <c r="C6">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8635</v>
       </c>
@@ -1232,8 +1254,11 @@
       <c r="C7">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21205</v>
       </c>
@@ -1243,8 +1268,11 @@
       <c r="C8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25366</v>
       </c>
@@ -1254,8 +1282,11 @@
       <c r="C9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21130</v>
       </c>
@@ -1265,8 +1296,11 @@
       <c r="C10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10739</v>
       </c>
@@ -1276,8 +1310,11 @@
       <c r="C11">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4308</v>
       </c>
@@ -1285,10 +1322,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25371</v>
       </c>
@@ -1298,8 +1338,11 @@
       <c r="C13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9590</v>
       </c>
@@ -1309,8 +1352,11 @@
       <c r="C14">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7253</v>
       </c>
@@ -1320,8 +1366,11 @@
       <c r="C15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25372</v>
       </c>
@@ -1331,8 +1380,11 @@
       <c r="C16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13076</v>
       </c>
@@ -1342,8 +1394,11 @@
       <c r="C17">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25369</v>
       </c>
@@ -1353,8 +1408,11 @@
       <c r="C18">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25365</v>
       </c>
@@ -1364,8 +1422,11 @@
       <c r="C19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23943</v>
       </c>
@@ -1375,8 +1436,11 @@
       <c r="C20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25378</v>
       </c>
@@ -1386,8 +1450,11 @@
       <c r="C21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4879</v>
       </c>
@@ -1397,8 +1464,11 @@
       <c r="C22">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25364</v>
       </c>
@@ -1408,8 +1478,11 @@
       <c r="C23">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25374</v>
       </c>
@@ -1419,8 +1492,11 @@
       <c r="C24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12348</v>
       </c>
@@ -1430,8 +1506,11 @@
       <c r="C25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25379</v>
       </c>
@@ -1441,10 +1520,13 @@
       <c r="C26">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTA(B2:B26)</f>
@@ -1460,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1473,105 +1555,105 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,73 +1665,73 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">

--- a/Class Activities.xlsx
+++ b/Class Activities.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
     <sheet name="Hourlies" sheetId="3" r:id="rId2"/>
-    <sheet name="ProjectProposal" sheetId="4" r:id="rId3"/>
-    <sheet name="Assignment 3" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="ProjectProposal" sheetId="4" r:id="rId4"/>
+    <sheet name="Assignment 3" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -172,9 +173,6 @@
   </si>
   <si>
     <t>The project will be based on the text processing tool that will be web-based application</t>
-  </si>
-  <si>
-    <t>Discuss</t>
   </si>
   <si>
     <t>Areeb Qureshi</t>
@@ -281,13 +279,64 @@
   </si>
   <si>
     <t>First Hourly (35)</t>
+  </si>
+  <si>
+    <t>First Hourly (20)</t>
+  </si>
+  <si>
+    <t>First Hourly (35)+2marks</t>
+  </si>
+  <si>
+    <t>Second Hourly (20)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>less features</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>3 apis, code organized in multiple files</t>
+  </si>
+  <si>
+    <t>data tables</t>
+  </si>
+  <si>
+    <t>No features in ppt</t>
+  </si>
+  <si>
+    <t>dash bootstrap</t>
+  </si>
+  <si>
+    <t>javascript, css,udemy api</t>
+  </si>
+  <si>
+    <t>Ibm watson, jquery and ajax</t>
+  </si>
+  <si>
+    <t>Late submission: 3 marks</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>late submission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,22 +360,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -396,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,35 +465,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1146,21 +1224,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="3" sqref="E1:E1048576 G1:G1048576 B1:B1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="3" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1168,13 +1247,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10092</v>
       </c>
@@ -1185,10 +1273,22 @@
         <v>11</v>
       </c>
       <c r="D2">
+        <f>C2+2</f>
+        <v>13</v>
+      </c>
+      <c r="E2" s="11">
+        <f>(D2/35) * 20</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="F2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="11">
+        <f>F2/30 * 20</f>
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9304</v>
       </c>
@@ -1199,10 +1299,22 @@
         <v>14</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D26" si="0">C3+2</f>
+        <v>16</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E26" si="1">(D3/35) * 20</f>
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G26" si="2">F3/30 * 20</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25367</v>
       </c>
@@ -1213,10 +1325,22 @@
         <v>33</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14831</v>
       </c>
@@ -1227,10 +1351,22 @@
         <v>28</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="F5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25377</v>
       </c>
@@ -1241,10 +1377,22 @@
         <v>17.5</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="F6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8635</v>
       </c>
@@ -1255,10 +1403,22 @@
         <v>17.5</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="F7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21205</v>
       </c>
@@ -1269,10 +1429,22 @@
         <v>31</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>18.857142857142858</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25366</v>
       </c>
@@ -1283,10 +1455,22 @@
         <v>31</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>18.857142857142858</v>
+      </c>
+      <c r="F9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21130</v>
       </c>
@@ -1297,10 +1481,22 @@
         <v>5</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10739</v>
       </c>
@@ -1311,10 +1507,22 @@
         <v>23.5</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4308</v>
       </c>
@@ -1324,11 +1532,22 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25371</v>
       </c>
@@ -1339,10 +1558,22 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9590</v>
       </c>
@@ -1353,10 +1584,22 @@
         <v>23.75</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>25.75</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>14.714285714285715</v>
+      </c>
+      <c r="F14">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7253</v>
       </c>
@@ -1367,10 +1610,22 @@
         <v>22</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>13.714285714285715</v>
+      </c>
+      <c r="F15">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" s="11">
+        <f t="shared" si="2"/>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25372</v>
       </c>
@@ -1381,10 +1636,22 @@
         <v>19</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="11">
+        <f t="shared" si="2"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13076</v>
       </c>
@@ -1395,10 +1662,22 @@
         <v>15.5</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F17">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="11">
+        <f t="shared" si="2"/>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25369</v>
       </c>
@@ -1409,10 +1688,22 @@
         <v>22.5</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>14.5</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="2"/>
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25365</v>
       </c>
@@ -1423,10 +1714,22 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="F19">
+        <v>27</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23943</v>
       </c>
@@ -1437,10 +1740,22 @@
         <v>32</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="F20">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="11">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25378</v>
       </c>
@@ -1451,10 +1766,22 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>15.428571428571429</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4879</v>
       </c>
@@ -1465,10 +1792,22 @@
         <v>28.5</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>17.428571428571431</v>
+      </c>
+      <c r="F22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25364</v>
       </c>
@@ -1479,10 +1818,22 @@
         <v>22.5</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="11">
+        <f t="shared" si="2"/>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25374</v>
       </c>
@@ -1493,10 +1844,22 @@
         <v>26</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="11">
+        <f t="shared" si="2"/>
+        <v>17.333333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12348</v>
       </c>
@@ -1507,10 +1870,22 @@
         <v>22</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
+        <v>13.714285714285715</v>
+      </c>
+      <c r="F25">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="11">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25379</v>
       </c>
@@ -1521,240 +1896,913 @@
         <v>19</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F26">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="11">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTA(B2:B26)</f>
         <v>25</v>
       </c>
+      <c r="E28" s="11">
+        <f>AVERAGE(E2:E26)</f>
+        <v>13.4</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:D26">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F26">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>10092</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="D2" s="14">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>9304</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="D3" s="14">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>25367</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>14831</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="D5" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>25377</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>8635</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="D7" s="14">
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>21205</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14">
+        <v>18.857142857142858</v>
+      </c>
+      <c r="D8" s="14">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>25366</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
+        <v>18.857142857142858</v>
+      </c>
+      <c r="D9" s="14">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>21130</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10739</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14">
+        <v>14.571428571428571</v>
+      </c>
+      <c r="D11" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>4308</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>25371</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14">
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>9590</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14">
+        <v>14.714285714285715</v>
+      </c>
+      <c r="D14" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>7253</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14">
+        <v>13.714285714285715</v>
+      </c>
+      <c r="D15" s="14">
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>25372</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14">
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>13076</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14">
+        <v>10</v>
+      </c>
+      <c r="D17" s="14">
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>25369</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>25365</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14">
+        <v>18.285714285714285</v>
+      </c>
+      <c r="D19" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>23943</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14">
+        <v>19.428571428571427</v>
+      </c>
+      <c r="D20" s="14">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>25378</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14">
+        <v>15.428571428571429</v>
+      </c>
+      <c r="D21" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>4879</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="14">
+        <v>17.428571428571431</v>
+      </c>
+      <c r="D22" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>25364</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="14">
+        <v>14</v>
+      </c>
+      <c r="D23" s="14">
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>25374</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="14">
+        <v>16</v>
+      </c>
+      <c r="D24" s="14">
+        <v>17.333333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>12348</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14">
+        <v>13.714285714285715</v>
+      </c>
+      <c r="D25" s="14">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25379</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14">
+        <v>8.6666666666666679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14">
+        <v>13.4</v>
+      </c>
+      <c r="D28" s="14">
+        <f>AVERAGE(D2:D26)</f>
+        <v>14.346666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="86.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="18">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9">
+        <f>SUM(E2,F2,G2)</f>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="18">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H16" si="0">SUM(E3,F3,G3)</f>
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="18">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="18">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="18">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="18">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="18">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="18">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="18">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>8</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="18">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="18">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="18">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="18">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Class Activities.xlsx
+++ b/Class Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Assignment 3 (5)</t>
-  </si>
-  <si>
-    <t>check for plag</t>
   </si>
   <si>
     <t>Incorrect distance formula</t>
@@ -330,6 +327,24 @@
   </si>
   <si>
     <t>late submission</t>
+  </si>
+  <si>
+    <t>Assignment 1(5)</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
+  </si>
+  <si>
+    <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>Assignment 4</t>
   </si>
 </sst>
 </file>
@@ -801,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,10 +828,11 @@
     <col min="2" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -829,8 +845,11 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10092</v>
       </c>
@@ -844,8 +863,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9304</v>
       </c>
@@ -859,8 +881,11 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25367</v>
       </c>
@@ -874,8 +899,11 @@
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14831</v>
       </c>
@@ -889,8 +917,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25377</v>
       </c>
@@ -904,11 +935,14 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8635</v>
       </c>
@@ -922,8 +956,11 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25366</v>
       </c>
@@ -937,8 +974,11 @@
       <c r="E8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10739</v>
       </c>
@@ -952,11 +992,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4308</v>
       </c>
@@ -970,11 +1013,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25371</v>
       </c>
@@ -985,11 +1031,14 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21205</v>
       </c>
@@ -1003,8 +1052,11 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21130</v>
       </c>
@@ -1018,11 +1070,14 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9590</v>
       </c>
@@ -1036,8 +1091,11 @@
       <c r="E14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7253</v>
       </c>
@@ -1051,8 +1109,11 @@
       <c r="E15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25372</v>
       </c>
@@ -1066,11 +1127,14 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13076</v>
       </c>
@@ -1084,11 +1148,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25369</v>
       </c>
@@ -1102,11 +1169,14 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25365</v>
       </c>
@@ -1120,11 +1190,14 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23943</v>
       </c>
@@ -1135,8 +1208,11 @@
       <c r="E20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25378</v>
       </c>
@@ -1150,8 +1226,14 @@
       <c r="E21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25364</v>
       </c>
@@ -1162,11 +1244,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4879</v>
       </c>
@@ -1177,8 +1262,11 @@
       <c r="E23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12348</v>
       </c>
@@ -1189,8 +1277,11 @@
       <c r="E24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25379</v>
       </c>
@@ -1204,17 +1295,29 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26">
         <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f>AVERAGE(E2:E26)</f>
+        <v>3.68</v>
       </c>
     </row>
   </sheetData>
@@ -1224,22 +1327,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="3" sqref="E1:E1048576 G1:G1048576 B1:B1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1247,22 +1354,37 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10092</v>
       </c>
@@ -1270,25 +1392,41 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f>SUM(C2:F2)</f>
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="D2">
-        <f>C2+2</f>
+      <c r="I2">
+        <f>H2+2</f>
         <v>13</v>
       </c>
-      <c r="E2" s="11">
-        <f>(D2/35) * 20</f>
+      <c r="J2" s="11">
+        <f>(I2/35) * 20</f>
         <v>7.4285714285714288</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>21.5</v>
       </c>
-      <c r="G2" s="11">
-        <f>F2/30 * 20</f>
+      <c r="L2" s="11">
+        <f>K2/30 * 20</f>
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9304</v>
       </c>
@@ -1296,25 +1434,41 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G26" si="0">SUM(C3:F3)</f>
+        <v>20</v>
+      </c>
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D26" si="0">C3+2</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I26" si="1">H3+2</f>
         <v>16</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E26" si="1">(D3/35) * 20</f>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J26" si="2">(I3/35) * 20</f>
         <v>9.1428571428571423</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>25</v>
       </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G26" si="2">F3/30 * 20</f>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L26" si="3">K3/30 * 20</f>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25367</v>
       </c>
@@ -1322,25 +1476,41 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H4">
         <v>33</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="I4">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="J4" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14831</v>
       </c>
@@ -1348,25 +1518,41 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>28</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="I5">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" si="1"/>
+      <c r="J5" s="11">
+        <f t="shared" si="2"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>27</v>
       </c>
-      <c r="G5" s="11">
-        <f t="shared" si="2"/>
+      <c r="L5" s="11">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25377</v>
       </c>
@@ -1374,25 +1560,41 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H6">
         <v>17.5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="I6">
+        <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="1"/>
+      <c r="J6" s="11">
+        <f t="shared" si="2"/>
         <v>11.142857142857142</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>16</v>
       </c>
-      <c r="G6" s="11">
-        <f t="shared" si="2"/>
+      <c r="L6" s="11">
+        <f t="shared" si="3"/>
         <v>10.666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8635</v>
       </c>
@@ -1400,25 +1602,41 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H7">
         <v>17.5</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="I7">
+        <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="1"/>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
         <v>11.142857142857142</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>22</v>
       </c>
-      <c r="G7" s="11">
-        <f t="shared" si="2"/>
+      <c r="L7" s="11">
+        <f t="shared" si="3"/>
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21205</v>
       </c>
@@ -1426,25 +1644,41 @@
         <v>11</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H8">
         <v>31</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="I8">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="1"/>
+      <c r="J8" s="11">
+        <f t="shared" si="2"/>
         <v>18.857142857142858</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="G8" s="11">
-        <f t="shared" si="2"/>
+      <c r="L8" s="11">
+        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25366</v>
       </c>
@@ -1452,25 +1686,41 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H9">
         <v>31</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="I9">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="1"/>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
         <v>18.857142857142858</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="G9" s="11">
-        <f t="shared" si="2"/>
+      <c r="L9" s="11">
+        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21130</v>
       </c>
@@ -1481,22 +1731,38 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="1"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>16</v>
       </c>
-      <c r="G10" s="11">
-        <f t="shared" si="2"/>
+      <c r="L10" s="11">
+        <f t="shared" si="3"/>
         <v>10.666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10739</v>
       </c>
@@ -1504,76 +1770,124 @@
         <v>8</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H11">
         <v>23.5</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="I11">
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4308</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>25371</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>14.571428571428571</v>
-      </c>
-      <c r="F11">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11">
+        <v>21</v>
+      </c>
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4308</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>25371</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F13">
+      <c r="K13">
         <v>23</v>
       </c>
-      <c r="G13" s="11">
-        <f t="shared" si="2"/>
+      <c r="L13" s="11">
+        <f t="shared" si="3"/>
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9590</v>
       </c>
@@ -1581,25 +1895,41 @@
         <v>13</v>
       </c>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H14">
         <v>23.75</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="1"/>
+      <c r="J14" s="11">
+        <f t="shared" si="2"/>
         <v>14.714285714285715</v>
       </c>
-      <c r="F14">
+      <c r="K14">
         <v>27</v>
       </c>
-      <c r="G14" s="11">
-        <f t="shared" si="2"/>
+      <c r="L14" s="11">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7253</v>
       </c>
@@ -1607,25 +1937,41 @@
         <v>14</v>
       </c>
       <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H15">
         <v>22</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="I15">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="1"/>
+      <c r="J15" s="11">
+        <f t="shared" si="2"/>
         <v>13.714285714285715</v>
       </c>
-      <c r="F15">
+      <c r="K15">
         <v>23</v>
       </c>
-      <c r="G15" s="11">
-        <f t="shared" si="2"/>
+      <c r="L15" s="11">
+        <f t="shared" si="3"/>
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25372</v>
       </c>
@@ -1633,25 +1979,41 @@
         <v>15</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H16">
         <v>19</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="I16">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="1"/>
+      <c r="J16" s="11">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="K16">
         <v>11</v>
       </c>
-      <c r="G16" s="11">
-        <f t="shared" si="2"/>
+      <c r="L16" s="11">
+        <f t="shared" si="3"/>
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13076</v>
       </c>
@@ -1659,25 +2021,41 @@
         <v>16</v>
       </c>
       <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
         <v>15.5</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="I17">
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="1"/>
+      <c r="J17" s="11">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="K17">
         <v>23</v>
       </c>
-      <c r="G17" s="11">
-        <f t="shared" si="2"/>
+      <c r="L17" s="11">
+        <f t="shared" si="3"/>
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25369</v>
       </c>
@@ -1685,25 +2063,41 @@
         <v>17</v>
       </c>
       <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H18">
         <v>22.5</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="I18">
+        <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="1"/>
+      <c r="J18" s="11">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F18">
+      <c r="K18">
         <v>14.5</v>
       </c>
-      <c r="G18" s="11">
-        <f t="shared" si="2"/>
+      <c r="L18" s="11">
+        <f t="shared" si="3"/>
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25365</v>
       </c>
@@ -1711,25 +2105,41 @@
         <v>18</v>
       </c>
       <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="I19">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="1"/>
+      <c r="J19" s="11">
+        <f t="shared" si="2"/>
         <v>18.285714285714285</v>
       </c>
-      <c r="F19">
+      <c r="K19">
         <v>27</v>
       </c>
-      <c r="G19" s="11">
-        <f t="shared" si="2"/>
+      <c r="L19" s="11">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23943</v>
       </c>
@@ -1737,25 +2147,41 @@
         <v>19</v>
       </c>
       <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H20">
         <v>32</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
+      <c r="I20">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="1"/>
+      <c r="J20" s="11">
+        <f t="shared" si="2"/>
         <v>19.428571428571427</v>
       </c>
-      <c r="F20">
+      <c r="K20">
         <v>29</v>
       </c>
-      <c r="G20" s="11">
-        <f t="shared" si="2"/>
+      <c r="L20" s="11">
+        <f t="shared" si="3"/>
         <v>19.333333333333332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25378</v>
       </c>
@@ -1763,103 +2189,167 @@
         <v>20</v>
       </c>
       <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H21">
         <v>25</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
+      <c r="I21">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E21" s="11">
+      <c r="J21" s="11">
+        <f t="shared" si="2"/>
+        <v>15.428571428571429</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4879</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>28.5</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="1"/>
-        <v>15.428571428571429</v>
-      </c>
-      <c r="F21">
+        <v>30.5</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="2"/>
+        <v>17.428571428571431</v>
+      </c>
+      <c r="K22">
         <v>24</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L22" s="11">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25364</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>22.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="3"/>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25374</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J24" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>4879</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>28.5</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="1"/>
-        <v>17.428571428571431</v>
-      </c>
-      <c r="F22">
-        <v>24</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>25364</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>22.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>19</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" si="2"/>
-        <v>12.666666666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>25374</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24">
+      <c r="K24">
         <v>26</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>26</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" si="2"/>
+      <c r="L24" s="11">
+        <f t="shared" si="3"/>
         <v>17.333333333333336</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12348</v>
       </c>
@@ -1867,25 +2357,41 @@
         <v>23</v>
       </c>
       <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H25">
         <v>22</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
+      <c r="I25">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="2"/>
         <v>13.714285714285715</v>
       </c>
-      <c r="F25">
+      <c r="K25">
         <v>29</v>
       </c>
-      <c r="G25" s="11">
-        <f t="shared" si="2"/>
+      <c r="L25" s="11">
+        <f t="shared" si="3"/>
         <v>19.333333333333332</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25379</v>
       </c>
@@ -1893,42 +2399,66 @@
         <v>24</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H26">
         <v>19</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
+      <c r="I26">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="1"/>
+      <c r="J26" s="11">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F26">
+      <c r="K26">
         <v>13</v>
       </c>
-      <c r="G26" s="11">
-        <f t="shared" si="2"/>
+      <c r="L26" s="11">
+        <f t="shared" si="3"/>
         <v>8.6666666666666679</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTA(B2:B26)</f>
         <v>25</v>
       </c>
-      <c r="E28" s="11">
-        <f>AVERAGE(E2:E26)</f>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
+        <f>AVERAGE(D2:D26)</f>
+        <v>3.68</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="J28" s="11">
+        <f>AVERAGE(J2:J26)</f>
         <v>13.4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D26">
+  <conditionalFormatting sqref="H2:I26">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F26">
+  <conditionalFormatting sqref="K2:K26">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,7 +2472,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1962,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,7 +2811,7 @@
         <v>25374</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="14">
         <v>16</v>
@@ -2320,7 +2850,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="10">
         <v>25</v>
@@ -2346,7 +2876,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2362,38 +2892,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="18">
         <v>5</v>
@@ -2409,17 +2939,17 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="18">
         <v>5</v>
@@ -2435,19 +2965,19 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="18">
         <v>5</v>
@@ -2463,19 +2993,19 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="18">
         <v>5</v>
@@ -2491,17 +3021,17 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="18">
         <v>5</v>
@@ -2520,11 +3050,11 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="18">
         <v>5</v>
@@ -2540,19 +3070,19 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="18">
         <v>5</v>
@@ -2568,17 +3098,17 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="18">
         <v>5</v>
@@ -2594,7 +3124,7 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2606,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="18">
         <v>5</v>
@@ -2622,19 +3152,19 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="E11" s="18">
         <v>5</v>
@@ -2650,19 +3180,19 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="E12" s="18">
         <v>5</v>
@@ -2678,19 +3208,19 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="18">
         <v>5</v>
@@ -2709,13 +3239,13 @@
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="18">
         <v>5</v>
@@ -2731,19 +3261,19 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="E15" s="18">
         <v>5</v>
@@ -2762,11 +3292,11 @@
     <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="18">
         <v>3</v>
@@ -2789,7 +3319,7 @@
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="10"/>
